--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25500" windowHeight="15600" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -10548,11 +10548,11 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -10917,7 +10917,7 @@
   </sheetPr>
   <dimension ref="A1:BM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1001">
   <si>
     <t>表名：</t>
   </si>
@@ -4499,6 +4499,14 @@
   </si>
   <si>
     <t>主城网格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻岛战时限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitSecBattle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10552,7 +10560,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10664,6 +10672,9 @@
       <c r="L4" s="5" t="s">
         <v>996</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="11"/>
@@ -10700,6 +10711,9 @@
       <c r="L5" s="5" t="s">
         <v>997</v>
       </c>
+      <c r="M5" s="5" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="6" t="s">
@@ -10734,6 +10748,9 @@
       </c>
       <c r="L6" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -10771,6 +10788,9 @@
       </c>
       <c r="L7" s="2">
         <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/island/DBCfg/DataCfg.xlsx
+++ b/Assets/island/DBCfg/DataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15600" tabRatio="827" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="配置表cfg" sheetId="1" r:id="rId1"/>
@@ -5125,7 +5125,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1512">
+  <cellStyleXfs count="1516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -8066,6 +8066,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -8585,7 +8597,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1512">
+  <cellStyles count="1516">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 1 10 2" xfId="3"/>
@@ -9684,6 +9696,8 @@
     <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
     <cellStyle name="逗号 [0]" xfId="885" builtinId="6"/>
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
@@ -9899,6 +9913,8 @@
     <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="886" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 10" xfId="887"/>
     <cellStyle name="好 11" xfId="888"/>
@@ -10556,7 +10572,7 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -20003,11 +20019,11 @@
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AF7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20603,7 +20619,7 @@
       <c r="AC7" s="40"/>
       <c r="AD7" s="40"/>
       <c r="AE7" s="40">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="AF7" s="40"/>
       <c r="AG7" s="40" t="s">
@@ -20716,7 +20732,7 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="AF8" s="40"/>
       <c r="AG8" s="40" t="s">
